--- a/kenglish_vitae_data.xlsx
+++ b/kenglish_vitae_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/kirstie_ken_english_glasgow_ac_uk/Documents/Documents/Website/kenglish_cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{AC9AD1FC-85F1-4502-986E-85483FC4A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F044AD3B-EDB2-0F42-8E71-0E992B616E2F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{AC9AD1FC-85F1-4502-986E-85483FC4A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B9FF21-32FD-C647-B579-36349058008E}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="820" windowWidth="14480" windowHeight="17000" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
@@ -96,13 +96,13 @@
     <t>Sep. 2019 - Sep. 2022</t>
   </si>
   <si>
-    <t>COSS PhD studentship</t>
-  </si>
-  <si>
     <t xml:space="preserve">Awarded to undertake advanced quantitative traning as part of my masters in social research methods </t>
   </si>
   <si>
     <t xml:space="preserve">To undertake my PhD in Sociology </t>
+  </si>
+  <si>
+    <t>CoSS PhD studentship</t>
   </si>
 </sst>
 </file>
@@ -155,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,7 +544,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,13 +579,13 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -598,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
